--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Waltl/Joseph_Waltl.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Waltl/Joseph_Waltl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Waltl est un médecin et un entomologiste bavarois, né le 28 juillet 1805 à Wasserburg et mort le 4 mars 1888 à Passau.
 Il étudie à Landshut et à Munich où il est diplômé de médecine en 1819. Il voyage alors en Autriche, en France et en Espagne. En 1833, il devient professeur à Passau, puis en 1835, professeur d’histoire naturelle à l’université de la ville. Il fait paraître de nombreuses publications sur les coléoptères et d’autres insectes.
